--- a/ROG Budget 2017.xlsx
+++ b/ROG Budget 2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>HMRRC Race Director's Budget</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Income</t>
   </si>
   <si>
-    <t>REVENUE</t>
-  </si>
-  <si>
     <t>2016 Actual</t>
   </si>
   <si>
@@ -44,34 +41,28 @@
     <t>Anticipated Income</t>
   </si>
   <si>
-    <t>mail</t>
-  </si>
-  <si>
     <t>Race Entry Income</t>
   </si>
   <si>
     <t>If you have several different levels of race entry fees, please list separately</t>
   </si>
   <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>Members</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>Non members</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>Children's race, if any</t>
-  </si>
-  <si>
-    <t>Donations</t>
+    <t>Holiday Special</t>
+  </si>
+  <si>
+    <t>Car Pool</t>
+  </si>
+  <si>
+    <t>HMRRC</t>
+  </si>
+  <si>
+    <t>HMRRC Car Pool</t>
+  </si>
+  <si>
+    <t>Non-member</t>
+  </si>
+  <si>
+    <t>Day of</t>
   </si>
   <si>
     <t>Sponsors</t>
@@ -86,34 +77,19 @@
     <t>TOTAL Income</t>
   </si>
   <si>
-    <t>AWARDS</t>
-  </si>
-  <si>
     <t>2015 Actual</t>
   </si>
   <si>
-    <t>awards</t>
-  </si>
-  <si>
     <t>Expenses (use only categories below)</t>
   </si>
   <si>
-    <t>walsh</t>
-  </si>
-  <si>
     <t>Advertising</t>
   </si>
   <si>
-    <t>fleetfeet</t>
-  </si>
-  <si>
     <t>Awards</t>
   </si>
   <si>
     <t>Includes cost of top finisher &amp; age group awards, medals, prize money, finishers certificates</t>
-  </si>
-  <si>
-    <t>crown</t>
   </si>
   <si>
     <t>Bank Charges</t>
@@ -170,6 +146,9 @@
     <t>Includes ambulance, medical supplies,cost for EMTs or other medical provessionals (not insurance)</t>
   </si>
   <si>
+    <t> a</t>
+  </si>
+  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -188,7 +167,7 @@
     </r>
   </si>
   <si>
-    <t>usatf fee</t>
+    <t>donation to Schalmont</t>
   </si>
   <si>
     <t>On line registration fees</t>
@@ -327,13 +306,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="MMMM\ D&quot;, &quot;YYYY"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
     <numFmt numFmtId="168" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="\$#,##0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -461,7 +441,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,6 +510,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,39 +530,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,15 +566,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,13 +667,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.0051020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4183673469388"/>
@@ -747,7 +739,7 @@
       <c r="K4" s="0"/>
       <c r="M4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -756,122 +748,112 @@
       <c r="D5" s="10"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="M5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>1450</v>
-      </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="M6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>7425</v>
       </c>
       <c r="C7" s="0"/>
-      <c r="D7" s="15" t="n">
-        <v>7425</v>
-      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0"/>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>2689.13</v>
-      </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="M7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="0"/>
+      <c r="C8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>900</v>
+      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="0"/>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>3131.61</v>
-      </c>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="M8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>500</v>
+      </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>154.38</v>
-      </c>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="M9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="17" t="n">
+        <v>125</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>3125</v>
+      </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="I10" s="0"/>
-      <c r="J10" s="1" t="n">
-        <f aca="false">SUM(J4:JI9)</f>
-        <v>7425.12</v>
-      </c>
+      <c r="J10" s="0"/>
       <c r="K10" s="0"/>
-      <c r="M10" s="1" t="n">
-        <f aca="false">220+220+110</f>
-        <v>550</v>
-      </c>
+      <c r="M10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>18</v>
+      <c r="A11" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="17" t="n">
+        <v>145</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>2900</v>
+      </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="I11" s="0"/>
@@ -879,12 +861,16 @@
       <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
+      <c r="A12" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>1050</v>
+      </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="I12" s="0"/>
@@ -893,156 +879,136 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B13" s="15" t="n">
-        <v>500</v>
-      </c>
-      <c r="C13" s="0"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="0" t="s">
-        <v>21</v>
-      </c>
+      <c r="D13" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="18" t="n">
-        <f aca="false">SUM(B7:B13)</f>
-        <v>7925</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18" t="n">
-        <f aca="false">SUM(D7:D13)</f>
-        <v>7425</v>
-      </c>
+      <c r="A14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
-      <c r="I14" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="0"/>
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15" t="n">
+        <v>500</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="0"/>
-      <c r="I15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="21"/>
+      <c r="A16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="21" t="n">
+        <f aca="false">SUM(B7:B15)</f>
+        <v>7925</v>
+      </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
+      <c r="D16" s="21" t="n">
+        <f aca="false">SUM(D7:D15)</f>
+        <v>9075</v>
+      </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
-      <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>109</v>
-      </c>
+      <c r="J16" s="0"/>
       <c r="K16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="0"/>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
-      <c r="I17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>220</v>
-      </c>
+      <c r="J17" s="0"/>
       <c r="K17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="23" t="n">
-        <v>549.34</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>31</v>
-      </c>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="0"/>
       <c r="F18" s="0"/>
-      <c r="I18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>220.34</v>
-      </c>
       <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="0"/>
       <c r="F19" s="0"/>
-      <c r="J19" s="1" t="n">
-        <f aca="false">SUM(J16:J18)</f>
+      <c r="K19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="25" t="n">
         <v>549.34</v>
       </c>
-      <c r="K19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="15"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="0"/>
+      <c r="D20" s="25" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="F20" s="0"/>
       <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="15"/>
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="0"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="0"/>
       <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>36</v>
+      <c r="A22" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="26"/>
@@ -1053,7 +1019,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="26"/>
@@ -1064,7 +1030,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="26"/>
@@ -1073,311 +1039,333 @@
       <c r="F24" s="0"/>
       <c r="K24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="15" t="n">
-        <v>1200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B25" s="15"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="15" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="0"/>
       <c r="F25" s="0"/>
-      <c r="K25" s="1" t="n">
-        <f aca="false">6.48+12.96</f>
-        <v>19.44</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="26"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="E26" s="0"/>
       <c r="F26" s="0"/>
+      <c r="K26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B27" s="15" t="n">
-        <v>175</v>
+        <v>1200</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="15" t="n">
-        <v>175</v>
+        <v>900</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="26"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B29" s="15" t="n">
-        <v>311.5</v>
+        <v>175</v>
       </c>
       <c r="C29" s="26"/>
-      <c r="D29" s="0"/>
+      <c r="D29" s="15" t="n">
+        <v>175</v>
+      </c>
       <c r="E29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>49</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="26"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="15" t="n">
+        <v>311.5</v>
+      </c>
       <c r="C31" s="26"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="28" t="n">
+        <v>300</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="0"/>
+      <c r="D32" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="15" t="n">
+        <v>45</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="15" t="n">
         <v>19.44</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="15" t="n">
-        <v>19.44</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="15" t="n">
-        <v>360</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="15" t="n">
-        <v>360</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="15" t="n">
-        <v>243.84</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="15" t="n">
-        <v>243.84</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="B36" s="15" t="n">
+        <v>360</v>
+      </c>
       <c r="C36" s="26"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15" t="n">
+        <v>360</v>
+      </c>
       <c r="E36" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B37" s="15" t="n">
-        <v>1937.5</v>
+        <v>243.84</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="15" t="n">
-        <v>1937.5</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>250</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="F37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="26"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="0"/>
+      <c r="E38" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="B39" s="15" t="n">
+        <v>1937.5</v>
+      </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16" t="s">
-        <v>66</v>
+      <c r="D39" s="15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="15" t="n">
-        <v>1488.3</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B40" s="15"/>
       <c r="C40" s="26"/>
-      <c r="D40" s="15" t="n">
-        <v>1488.3</v>
-      </c>
+      <c r="D40" s="15"/>
       <c r="E40" s="0"/>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="26"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="27"/>
+      <c r="E41" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B42" s="15" t="n">
-        <v>122.95</v>
+        <v>1488.3</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="0"/>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="15" t="n">
         <v>122.95</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="19" t="n">
-        <f aca="false">SUM(B17:B42)</f>
+      <c r="C44" s="19"/>
+      <c r="D44" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="31" t="n">
+        <f aca="false">SUM(B19:B44)</f>
         <v>6407.87</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="19" t="n">
-        <f aca="false">SUM(D17:D42)</f>
-        <v>6547.03</v>
-      </c>
-      <c r="F43" s="27"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="10" t="n">
-        <f aca="false">SUM(B14-B43)</f>
+      <c r="C45" s="26"/>
+      <c r="D45" s="31" t="n">
+        <f aca="false">SUM(D19:D44)</f>
+        <v>7505</v>
+      </c>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="10" t="n">
+        <f aca="false">SUM(B16-B45)</f>
         <v>1517.13</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="10" t="n">
-        <f aca="false">SUM(D14-D43)</f>
-        <v>877.969999999999</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="0"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="33"/>
+      <c r="D47" s="10" t="n">
+        <f aca="false">SUM(D16-D45)</f>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="29"/>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>66</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>

--- a/ROG Budget 2017.xlsx
+++ b/ROG Budget 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="71" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RD Report" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>HMRRC Race Director's Budget</t>
   </si>
@@ -89,7 +89,7 @@
     <t>Awards</t>
   </si>
   <si>
-    <t>Includes cost of top finisher &amp; age group awards, medals, prize money, finishers certificates</t>
+    <t>Includes cost of top finisher &amp; age group awards, medals, and team prize money</t>
   </si>
   <si>
     <t>Bank Charges</t>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Cups</t>
+  </si>
+  <si>
+    <t>    </t>
   </si>
   <si>
     <t>Entertainment</t>
@@ -146,7 +149,7 @@
     <t>Includes ambulance, medical supplies,cost for EMTs or other medical provessionals (not insurance)</t>
   </si>
   <si>
-    <t> a</t>
+    <t>a</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -669,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -965,6 +968,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
+      <c r="J18" s="0"/>
       <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,9 +980,10 @@
       <c r="D19" s="25"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
+      <c r="J19" s="0"/>
       <c r="K19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -993,6 +998,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="0"/>
+      <c r="J20" s="0"/>
       <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,6 +1010,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="16"/>
       <c r="F21" s="0"/>
+      <c r="J21" s="0"/>
       <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,6 +1022,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
+      <c r="J22" s="0"/>
       <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,6 +1034,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
+      <c r="J23" s="0"/>
       <c r="K23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,6 +1046,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
+      <c r="J24" s="0"/>
       <c r="K24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,101 +1056,108 @@
       <c r="B25" s="15"/>
       <c r="C25" s="26"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="0"/>
+      <c r="E25" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="0"/>
+      <c r="J25" s="0"/>
       <c r="K25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="26"/>
       <c r="D26" s="15"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
+      <c r="J26" s="0"/>
       <c r="K26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="15" t="n">
         <v>1200</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="15" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" s="0"/>
+      <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="26"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" s="0"/>
+      <c r="J28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="15" t="n">
         <v>175</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="15" t="n">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" s="0"/>
+      <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="26"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" s="0"/>
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="15" t="n">
         <v>311.5</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="28" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="26"/>
@@ -1148,13 +1165,13 @@
         <v>200</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="26"/>
@@ -1164,7 +1181,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="26"/>
@@ -1174,7 +1191,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="15" t="n">
         <v>19.44</v>
@@ -1184,13 +1201,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="15" t="n">
         <v>360</v>
@@ -1200,13 +1217,13 @@
         <v>360</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="15" t="n">
         <v>243.84</v>
@@ -1216,25 +1233,25 @@
         <v>250</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="26"/>
       <c r="D38" s="15"/>
       <c r="E38" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="15" t="n">
         <v>1937.5</v>
@@ -1244,13 +1261,13 @@
         <v>2000</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="26"/>
@@ -1260,19 +1277,19 @@
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="26"/>
       <c r="D41" s="15"/>
       <c r="E41" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="15" t="n">
         <v>1488.3</v>
@@ -1286,7 +1303,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="30"/>
@@ -1296,7 +1313,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" s="15" t="n">
         <v>122.95</v>
@@ -1306,13 +1323,13 @@
         <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" s="31" t="n">
         <f aca="false">SUM(B19:B44)</f>
@@ -1321,7 +1338,7 @@
       <c r="C45" s="26"/>
       <c r="D45" s="31" t="n">
         <f aca="false">SUM(D19:D44)</f>
-        <v>7505</v>
+        <v>7465</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -1333,7 +1350,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" s="10" t="n">
         <f aca="false">SUM(B16-B45)</f>
@@ -1342,12 +1359,12 @@
       <c r="C47" s="33"/>
       <c r="D47" s="10" t="n">
         <f aca="false">SUM(D16-D45)</f>
-        <v>1570</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="32"/>
@@ -1355,14 +1372,14 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="34"/>
       <c r="D49" s="35"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="36"/>
     </row>

--- a/ROG Budget 2017.xlsx
+++ b/ROG Budget 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="71" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="36" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RD Report" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>HMRRC Race Director's Budget</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Cups</t>
-  </si>
-  <si>
-    <t>    </t>
   </si>
   <si>
     <t>Entertainment</t>
@@ -672,8 +669,8 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -816,10 +813,10 @@
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -834,10 +831,10 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="n">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3125</v>
+        <v>1925</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -852,10 +849,10 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="17" t="n">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -869,15 +866,18 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="0" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1050</v>
+        <v>540</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
+      <c r="J12" s="0" t="n">
+        <f aca="false">300+200+100+75+50+35+25</f>
+        <v>785</v>
+      </c>
       <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,7 +894,9 @@
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
+      <c r="J13" s="0" t="n">
+        <v>261</v>
+      </c>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,7 +909,10 @@
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
+      <c r="J14" s="0" t="n">
+        <f aca="false">J12+J13</f>
+        <v>1046</v>
+      </c>
       <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +943,7 @@
       <c r="C16" s="22"/>
       <c r="D16" s="21" t="n">
         <f aca="false">SUM(D7:D15)</f>
-        <v>9075</v>
+        <v>5990</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -1056,16 +1061,14 @@
       <c r="B25" s="15"/>
       <c r="C25" s="26"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="0" t="s">
-        <v>30</v>
-      </c>
+      <c r="E25" s="0"/>
       <c r="F25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="26"/>
@@ -1077,7 +1080,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="15" t="n">
         <v>1200</v>
@@ -1087,27 +1090,27 @@
         <v>500</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="0"/>
       <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="26"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="0"/>
       <c r="J28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="15" t="n">
         <v>175</v>
@@ -1117,47 +1120,47 @@
         <v>235</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="0"/>
       <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="26"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="0"/>
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="15" t="n">
         <v>311.5</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="28" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="26"/>
@@ -1165,13 +1168,13 @@
         <v>200</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="26"/>
@@ -1181,7 +1184,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="26"/>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="15" t="n">
         <v>19.44</v>
@@ -1201,13 +1204,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="15" t="n">
         <v>360</v>
@@ -1217,13 +1220,13 @@
         <v>360</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="15" t="n">
         <v>243.84</v>
@@ -1233,41 +1236,41 @@
         <v>250</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="26"/>
       <c r="D38" s="15"/>
       <c r="E38" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="15" t="n">
         <v>1937.5</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="15" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="26"/>
@@ -1277,33 +1280,33 @@
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="26"/>
       <c r="D41" s="15"/>
       <c r="E41" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="15" t="n">
         <v>1488.3</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="15" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E42" s="0"/>
       <c r="F42" s="29"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="30"/>
@@ -1313,7 +1316,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="15" t="n">
         <v>122.95</v>
@@ -1323,13 +1326,13 @@
         <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="31" t="n">
         <f aca="false">SUM(B19:B44)</f>
@@ -1338,7 +1341,7 @@
       <c r="C45" s="26"/>
       <c r="D45" s="31" t="n">
         <f aca="false">SUM(D19:D44)</f>
-        <v>7465</v>
+        <v>5865</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -1350,7 +1353,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="10" t="n">
         <f aca="false">SUM(B16-B45)</f>
@@ -1359,12 +1362,12 @@
       <c r="C47" s="33"/>
       <c r="D47" s="10" t="n">
         <f aca="false">SUM(D16-D45)</f>
-        <v>1610</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="32"/>
@@ -1372,14 +1375,14 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="34"/>
       <c r="D49" s="35"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="36"/>
     </row>
